--- a/Data Files/DataSource.xlsx
+++ b/Data Files/DataSource.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon_Studio\TDC_AutomationTest_CreateOrder\Data Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kschoo\Downloads\TDC_AutomationTest\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -119,7 +119,7 @@
     <t>FTTH_P500_24M_MAX_MESH_FD</t>
   </si>
   <si>
-    <t>Kinrara</t>
+    <t>Panorama Tower A</t>
   </si>
 </sst>
 </file>
@@ -515,7 +515,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -590,29 +590,29 @@
         <v>32</v>
       </c>
       <c r="C2" s="22">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="D2" t="str">
         <f ca="1">CONCATENATE(A2, "_", TEXT(NOW(),"mmddhmss"))</f>
-        <v>FTTH_P100_24M_Basic_042813631</v>
+        <v>FTTH_P100_24M_Basic_0503115804</v>
       </c>
       <c r="E2" t="str">
         <f ca="1">"91"&amp;TEXT(MONTH(TODAY()),"00")&amp;TEXT(DAY(TODAY()),"00")</f>
-        <v>910428</v>
+        <v>910503</v>
       </c>
       <c r="F2">
         <v>88</v>
       </c>
       <c r="G2" t="str">
         <f>CONCATENATE(10,C2)</f>
-        <v>1083</v>
+        <v>1099</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="13" t="str">
-        <f ca="1">TEXT((DAY(TODAY()+12)),"00")</f>
-        <v>10</v>
+        <f ca="1">TEXT((DAY(TODAY()+5)),"0")</f>
+        <v>8</v>
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="19"/>
@@ -634,29 +634,29 @@
         <v>32</v>
       </c>
       <c r="C3" s="22">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D7" ca="1" si="0">CONCATENATE(A3, "_", TEXT(NOW(),"mmddhmss"))</f>
-        <v>FTTH_P500_24M_MAX_MESH_042813631</v>
+        <v>FTTH_P500_24M_MAX_MESH_0503115804</v>
       </c>
       <c r="E3" t="str">
         <f ca="1">"91"&amp;TEXT(MONTH(TODAY()),"00")&amp;TEXT(DAY(TODAY()),"00")</f>
-        <v>910428</v>
+        <v>910503</v>
       </c>
       <c r="F3">
         <v>88</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G4" si="1">CONCATENATE(10,C3)</f>
-        <v>1084</v>
+        <v>1099</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I3" s="13" t="str">
-        <f t="shared" ref="I3:I7" ca="1" si="2">TEXT((DAY(TODAY()+12)),"00")</f>
-        <v>10</v>
+        <f t="shared" ref="I3:I7" ca="1" si="2">TEXT((DAY(TODAY()+5)),"0")</f>
+        <v>8</v>
       </c>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
@@ -679,29 +679,29 @@
         <v>32</v>
       </c>
       <c r="C4" s="22">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>FTTH_1G_12M_Basic_042813631</v>
+        <v>FTTH_1G_12M_Basic_0503115804</v>
       </c>
       <c r="E4" t="str">
         <f ca="1">"91"&amp;TEXT(MONTH(TODAY()),"00")&amp;TEXT(DAY(TODAY()),"00")</f>
-        <v>910428</v>
+        <v>910503</v>
       </c>
       <c r="F4">
         <v>88</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="1"/>
-        <v>1085</v>
+        <v>1099</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I4" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
@@ -724,29 +724,29 @@
         <v>32</v>
       </c>
       <c r="C5" s="22">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>FTTO_20Mbps_042813631</v>
+        <v>FTTO_20Mbps_0503115804</v>
       </c>
       <c r="E5" t="str">
         <f ca="1">"91"&amp;TEXT(MONTH(TODAY()),"00")&amp;TEXT(DAY(TODAY()),"00")</f>
-        <v>910428</v>
+        <v>910503</v>
       </c>
       <c r="F5">
         <v>88</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" ref="G5" si="3">CONCATENATE(10,C5)</f>
-        <v>1086</v>
+        <v>1099</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I5" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
@@ -769,29 +769,29 @@
         <v>32</v>
       </c>
       <c r="C6" s="22">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>FTTO_All_Packages_042813631</v>
+        <v>FTTO_All_Packages_0503115804</v>
       </c>
       <c r="E6" t="str">
         <f ca="1">"91"&amp;TEXT(MONTH(TODAY()),"00")&amp;TEXT(DAY(TODAY()),"00")</f>
-        <v>910428</v>
+        <v>910503</v>
       </c>
       <c r="F6">
         <v>88</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" ref="G6" si="4">CONCATENATE(10,C6)</f>
-        <v>1087</v>
+        <v>1099</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I6" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
@@ -810,22 +810,22 @@
         <v>32</v>
       </c>
       <c r="C7" s="22">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>FTTH_P500_24M_MAX_MESH_FD_042813631</v>
+        <v>FTTH_P500_24M_MAX_MESH_FD_0503115804</v>
       </c>
       <c r="E7" s="10" t="str">
         <f ca="1">"T"&amp;TEXT(MONTH(TODAY()),"00")&amp;TEXT(DAY(TODAY()),"00")&amp;C7</f>
-        <v>T042882</v>
+        <v>T050399</v>
       </c>
       <c r="H7" s="23" t="s">
         <v>6</v>
       </c>
       <c r="I7" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>

--- a/Data Files/DataSource.xlsx
+++ b/Data Files/DataSource.xlsx
@@ -168,7 +168,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,6 +185,14 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightTrellis"/>
+    </fill>
+    <fill>
+      <patternFill patternType="lightTrellis">
+        <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
   </fills>
@@ -204,7 +212,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -231,6 +239,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -515,13 +533,13 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="53.85546875" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
@@ -590,29 +608,29 @@
         <v>32</v>
       </c>
       <c r="C2" s="22">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D2" t="str">
         <f ca="1">CONCATENATE(A2, "_", TEXT(NOW(),"mmddhmss"))</f>
-        <v>FTTH_P100_24M_Basic_0503115804</v>
+        <v>FTTH_P100_24M_Basic_0505184738</v>
       </c>
       <c r="E2" t="str">
         <f ca="1">"91"&amp;TEXT(MONTH(TODAY()),"00")&amp;TEXT(DAY(TODAY()),"00")</f>
-        <v>910503</v>
+        <v>910505</v>
       </c>
       <c r="F2">
         <v>88</v>
       </c>
       <c r="G2" t="str">
         <f>CONCATENATE(10,C2)</f>
-        <v>1099</v>
+        <v>1087</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="13" t="str">
-        <f ca="1">TEXT((DAY(TODAY()+5)),"0")</f>
-        <v>8</v>
+        <f ca="1">TEXT((DAY(TODAY()+4)),"0")</f>
+        <v>9</v>
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="19"/>
@@ -634,29 +652,29 @@
         <v>32</v>
       </c>
       <c r="C3" s="22">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D7" ca="1" si="0">CONCATENATE(A3, "_", TEXT(NOW(),"mmddhmss"))</f>
-        <v>FTTH_P500_24M_MAX_MESH_0503115804</v>
+        <v>FTTH_P500_24M_MAX_MESH_0505184738</v>
       </c>
       <c r="E3" t="str">
         <f ca="1">"91"&amp;TEXT(MONTH(TODAY()),"00")&amp;TEXT(DAY(TODAY()),"00")</f>
-        <v>910503</v>
+        <v>910505</v>
       </c>
       <c r="F3">
         <v>88</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G4" si="1">CONCATENATE(10,C3)</f>
-        <v>1099</v>
+        <v>1089</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I3" s="13" t="str">
-        <f t="shared" ref="I3:I7" ca="1" si="2">TEXT((DAY(TODAY()+5)),"0")</f>
-        <v>8</v>
+        <f t="shared" ref="I3:I7" ca="1" si="2">TEXT((DAY(TODAY()+4)),"0")</f>
+        <v>9</v>
       </c>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
@@ -679,29 +697,29 @@
         <v>32</v>
       </c>
       <c r="C4" s="22">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>FTTH_1G_12M_Basic_0503115804</v>
+        <v>FTTH_1G_12M_Basic_0505184738</v>
       </c>
       <c r="E4" t="str">
         <f ca="1">"91"&amp;TEXT(MONTH(TODAY()),"00")&amp;TEXT(DAY(TODAY()),"00")</f>
-        <v>910503</v>
+        <v>910505</v>
       </c>
       <c r="F4">
         <v>88</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="1"/>
-        <v>1099</v>
+        <v>1090</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I4" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
@@ -716,48 +734,48 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
-      <c r="A5" t="s">
+    <row r="5" spans="1:15" s="24" customFormat="1" hidden="1">
+      <c r="A5" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="22">
-        <v>99</v>
-      </c>
-      <c r="D5" t="str">
+      <c r="C5" s="25">
+        <v>94</v>
+      </c>
+      <c r="D5" s="24" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>FTTO_20Mbps_0503115804</v>
-      </c>
-      <c r="E5" t="str">
+        <v>FTTO_20Mbps_0505184738</v>
+      </c>
+      <c r="E5" s="24" t="str">
         <f ca="1">"91"&amp;TEXT(MONTH(TODAY()),"00")&amp;TEXT(DAY(TODAY()),"00")</f>
-        <v>910503</v>
-      </c>
-      <c r="F5">
+        <v>910505</v>
+      </c>
+      <c r="F5" s="24">
         <v>88</v>
       </c>
-      <c r="G5" t="str">
+      <c r="G5" s="24" t="str">
         <f t="shared" ref="G5" si="3">CONCATENATE(10,C5)</f>
-        <v>1099</v>
-      </c>
-      <c r="H5" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="H5" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="13" t="str">
+      <c r="I5" s="27" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="4">
+        <v>9</v>
+      </c>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="29">
         <v>252.28</v>
       </c>
-      <c r="M5" s="15">
+      <c r="M5" s="30">
         <v>199.28</v>
       </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="10" t="s">
+      <c r="N5" s="29"/>
+      <c r="O5" s="31" t="s">
         <v>16</v>
       </c>
     </row>
@@ -769,29 +787,29 @@
         <v>32</v>
       </c>
       <c r="C6" s="22">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>FTTO_All_Packages_0503115804</v>
+        <v>FTTO_All_Packages_0505184738</v>
       </c>
       <c r="E6" t="str">
         <f ca="1">"91"&amp;TEXT(MONTH(TODAY()),"00")&amp;TEXT(DAY(TODAY()),"00")</f>
-        <v>910503</v>
+        <v>910505</v>
       </c>
       <c r="F6">
         <v>88</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" ref="G6" si="4">CONCATENATE(10,C6)</f>
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I6" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
@@ -810,22 +828,22 @@
         <v>32</v>
       </c>
       <c r="C7" s="22">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>FTTH_P500_24M_MAX_MESH_FD_0503115804</v>
+        <v>FTTH_P500_24M_MAX_MESH_FD_0505184738</v>
       </c>
       <c r="E7" s="10" t="str">
         <f ca="1">"T"&amp;TEXT(MONTH(TODAY()),"00")&amp;TEXT(DAY(TODAY()),"00")&amp;C7</f>
-        <v>T050399</v>
+        <v>T050591</v>
       </c>
       <c r="H7" s="23" t="s">
         <v>6</v>
       </c>
       <c r="I7" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
